--- a/natmiOut/OldD2/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.669758076798321</v>
+        <v>0.306399</v>
       </c>
       <c r="H2">
-        <v>0.669758076798321</v>
+        <v>0.919197</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3017954127735523</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3017954127735522</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>110.223519260686</v>
+        <v>50.42631110392951</v>
       </c>
       <c r="R2">
-        <v>110.223519260686</v>
+        <v>302.557866623577</v>
       </c>
       <c r="S2">
-        <v>0.2369291145770381</v>
+        <v>0.07003963738996105</v>
       </c>
       <c r="T2">
-        <v>0.2369291145770381</v>
+        <v>0.05449212026188861</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.669758076798321</v>
+        <v>0.306399</v>
       </c>
       <c r="H3">
-        <v>0.669758076798321</v>
+        <v>0.919197</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3017954127735523</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3017954127735522</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>74.59181558766191</v>
+        <v>36.389271334872</v>
       </c>
       <c r="R3">
-        <v>74.59181558766191</v>
+        <v>327.503442013848</v>
       </c>
       <c r="S3">
-        <v>0.1603375843959462</v>
+        <v>0.05054288750026632</v>
       </c>
       <c r="T3">
-        <v>0.1603375843959462</v>
+        <v>0.05898493781556292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.669758076798321</v>
+        <v>0.306399</v>
       </c>
       <c r="H4">
-        <v>0.669758076798321</v>
+        <v>0.919197</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3017954127735523</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3017954127735522</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>56.27417936494744</v>
+        <v>25.900507092843</v>
       </c>
       <c r="R4">
-        <v>56.27417936494744</v>
+        <v>233.104563835587</v>
       </c>
       <c r="S4">
-        <v>0.1209632171057159</v>
+        <v>0.0359745157891884</v>
       </c>
       <c r="T4">
-        <v>0.1209632171057159</v>
+        <v>0.04198324792502374</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.669758076798321</v>
+        <v>0.306399</v>
       </c>
       <c r="H5">
-        <v>0.669758076798321</v>
+        <v>0.919197</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.3017954127735523</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3017954127735522</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>52.91175712555049</v>
+        <v>24.400299354965</v>
       </c>
       <c r="R5">
-        <v>52.91175712555049</v>
+        <v>219.602694194685</v>
       </c>
       <c r="S5">
-        <v>0.1137355788542978</v>
+        <v>0.03389080187733731</v>
       </c>
       <c r="T5">
-        <v>0.1137355788542978</v>
+        <v>0.03955149656306778</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.669758076798321</v>
+        <v>0.306399</v>
       </c>
       <c r="H6">
-        <v>0.669758076798321</v>
+        <v>0.919197</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.3017954127735523</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.3017954127735522</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>77.74200600076192</v>
+        <v>37.298956484316</v>
       </c>
       <c r="R6">
-        <v>77.74200600076192</v>
+        <v>335.690608358844</v>
       </c>
       <c r="S6">
-        <v>0.1671090232896694</v>
+        <v>0.05180639491556732</v>
       </c>
       <c r="T6">
-        <v>0.1671090232896694</v>
+        <v>0.0604594856700091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,421 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.669758076798321</v>
+        <v>0.306399</v>
       </c>
       <c r="H7">
-        <v>0.669758076798321</v>
+        <v>0.919197</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.3017954127735523</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.3017954127735522</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>93.47400698382876</v>
+        <v>42.8677523345355</v>
       </c>
       <c r="R7">
-        <v>93.47400698382876</v>
+        <v>257.206514007213</v>
       </c>
       <c r="S7">
-        <v>0.2009254817773325</v>
+        <v>0.0595411753012319</v>
       </c>
       <c r="T7">
-        <v>0.2009254817773325</v>
+        <v>0.04632412453800006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.7088550000000001</v>
+      </c>
+      <c r="H8">
+        <v>2.126565</v>
+      </c>
+      <c r="I8">
+        <v>0.6982045872264478</v>
+      </c>
+      <c r="J8">
+        <v>0.6982045872264477</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>164.5772705</v>
+      </c>
+      <c r="N8">
+        <v>329.154541</v>
+      </c>
+      <c r="O8">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P8">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q8">
+        <v>116.6614210802775</v>
+      </c>
+      <c r="R8">
+        <v>699.9685264816651</v>
+      </c>
+      <c r="S8">
+        <v>0.1620369099183119</v>
+      </c>
+      <c r="T8">
+        <v>0.1260676826890462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.7088550000000001</v>
+      </c>
+      <c r="H9">
+        <v>2.126565</v>
+      </c>
+      <c r="I9">
+        <v>0.6982045872264478</v>
+      </c>
+      <c r="J9">
+        <v>0.6982045872264477</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>118.764328</v>
+      </c>
+      <c r="N9">
+        <v>356.292984</v>
+      </c>
+      <c r="O9">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P9">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q9">
+        <v>84.18668772444001</v>
+      </c>
+      <c r="R9">
+        <v>757.6801895199601</v>
+      </c>
+      <c r="S9">
+        <v>0.1169311209207644</v>
+      </c>
+      <c r="T9">
+        <v>0.1364618294943876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7088550000000001</v>
+      </c>
+      <c r="H10">
+        <v>2.126565</v>
+      </c>
+      <c r="I10">
+        <v>0.6982045872264478</v>
+      </c>
+      <c r="J10">
+        <v>0.6982045872264477</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N10">
+        <v>253.595871</v>
+      </c>
+      <c r="O10">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P10">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q10">
+        <v>59.92090037923501</v>
+      </c>
+      <c r="R10">
+        <v>539.2881034131151</v>
+      </c>
+      <c r="S10">
+        <v>0.08322714953294608</v>
+      </c>
+      <c r="T10">
+        <v>0.09712836924367477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7088550000000001</v>
+      </c>
+      <c r="H11">
+        <v>2.126565</v>
+      </c>
+      <c r="I11">
+        <v>0.6982045872264478</v>
+      </c>
+      <c r="J11">
+        <v>0.6982045872264477</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N11">
+        <v>238.907105</v>
+      </c>
+      <c r="O11">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P11">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q11">
+        <v>56.45016530492501</v>
+      </c>
+      <c r="R11">
+        <v>508.0514877443251</v>
+      </c>
+      <c r="S11">
+        <v>0.07840647118548018</v>
+      </c>
+      <c r="T11">
+        <v>0.09150250521775009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7088550000000001</v>
+      </c>
+      <c r="H12">
+        <v>2.126565</v>
+      </c>
+      <c r="I12">
+        <v>0.6982045872264478</v>
+      </c>
+      <c r="J12">
+        <v>0.6982045872264477</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>121.733284</v>
+      </c>
+      <c r="N12">
+        <v>365.199852</v>
+      </c>
+      <c r="O12">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P12">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q12">
+        <v>86.29124702982</v>
+      </c>
+      <c r="R12">
+        <v>776.62122326838</v>
+      </c>
+      <c r="S12">
+        <v>0.1198542490930926</v>
+      </c>
+      <c r="T12">
+        <v>0.1398732003518755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7088550000000001</v>
+      </c>
+      <c r="H13">
+        <v>2.126565</v>
+      </c>
+      <c r="I13">
+        <v>0.6982045872264478</v>
+      </c>
+      <c r="J13">
+        <v>0.6982045872264477</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>139.9082645</v>
+      </c>
+      <c r="N13">
+        <v>279.816529</v>
+      </c>
+      <c r="O13">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P13">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q13">
+        <v>99.17467283214752</v>
+      </c>
+      <c r="R13">
+        <v>595.048036992885</v>
+      </c>
+      <c r="S13">
+        <v>0.1377486865758529</v>
+      </c>
+      <c r="T13">
+        <v>0.1071710002297136</v>
       </c>
     </row>
   </sheetData>
